--- a/src/test/resources/sample_with_title.xlsx
+++ b/src/test/resources/sample_with_title.xlsx
@@ -12,12 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>社員マスタ</t>
-  </si>
-  <si>
-    <t>2024年度版</t>
+    <t>社員一覧</t>
   </si>
   <si>
     <t>名前</t>
@@ -112,65 +109,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" t="s" s="0">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
+      <c r="B3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="C3" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="D3" t="s" s="0">
         <v>4</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>25.0</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>30.0</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>28.0</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/sample_with_title.xlsx
+++ b/src/test/resources/sample_with_title.xlsx
@@ -12,9 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>社員一覧</t>
+    <t>社員マスタ</t>
+  </si>
+  <si>
+    <t>2024年度版</t>
   </si>
   <si>
     <t>名前</t>
@@ -109,61 +112,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2"/>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>25.0</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>30.0</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>28.0</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
